--- a/data/sop_data.xlsx
+++ b/data/sop_data.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">DUM39995</t>
   </si>
   <si>
-    <t xml:space="preserve">SOP_AutoTest_10</t>
+    <t xml:space="preserve">SOP_AutoTest_13</t>
   </si>
   <si>
     <t xml:space="preserve">/home/suraksha/Downloads/Correct_Doc.pdf.docx</t>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/sop_data.xlsx
+++ b/data/sop_data.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">DUM39995</t>
   </si>
   <si>
-    <t xml:space="preserve">SOP_AutoTest_13</t>
+    <t xml:space="preserve">SOP_AutoTest_15</t>
   </si>
   <si>
     <t xml:space="preserve">/home/suraksha/Downloads/Correct_Doc.pdf.docx</t>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
